--- a/东兴馆店铺运营/沉香线香2017/关键词统计/修改的标题.xlsx
+++ b/东兴馆店铺运营/沉香线香2017/关键词统计/修改的标题.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>东兴馆 越南进口 椰子咖啡糖200g 越南糖果 休闲糖果喜糖 越南特产休闲硬糖</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>东兴馆 lipo 越南进口面包干300g 牛奶味榴莲味面包片饼干 越南特产休闲零食</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东起 保健球手球健身球 木质花梨木中老年人实木手玩星按摩器 按摩球太极手转球</t>
+  </si>
+  <si>
+    <t>东起 保健球手球健身球 木质花梨木中老年人实木手玩星按摩器 太极手转球按摩球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -74,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +99,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,11 +121,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,68 +445,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="86.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>20170315</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
